--- a/library/use_file/openpyxl/xlsx/sample8.xlsx
+++ b/library/use_file/openpyxl/xlsx/sample8.xlsx
@@ -15,20 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>write B2</t>
-  </si>
-  <si>
-    <t>write C3</t>
-  </si>
-  <si>
-    <t>write D4</t>
-  </si>
-  <si>
-    <t>write E5</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,20 +50,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -374,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,24 +357,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="1:2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="D4" s="3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:2">
+      <c r="B3" t="n">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="E5" s="4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2">
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5">
+        <f>sum(B2,B3,B4)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
